--- a/output/LUAD_statistics_papillary.xlsx
+++ b/output/LUAD_statistics_papillary.xlsx
@@ -57,15 +57,15 @@
     <t>15</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -138,15 +138,15 @@
     <t>Mutation EGFR</t>
   </si>
   <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
     <t>Mutation ARID1A</t>
   </si>
   <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
     <t>Mutation CUL3</t>
   </si>
   <si>
@@ -156,13 +156,13 @@
     <t>Mutation RB1</t>
   </si>
   <si>
+    <t>Pattern XOR_RIT1</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
     <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Pattern XOR_RIT1</t>
   </si>
   <si>
     <t>Amplification MDM2</t>
@@ -389,10 +389,10 @@
         <v>0.02874797872880345</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0287479787288034</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5191204119887E-13</v>
+        <v>2.98804530548234E-11</v>
       </c>
       <c r="G3" t="n">
-        <v>7.50010710395693E-15</v>
+        <v>1.78808680974417E-14</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -427,16 +427,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.03833063830507127</v>
       </c>
       <c r="M3" t="n">
-        <v>0.136363636363636</v>
+        <v>0.104545454545455</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0306794798959342</v>
       </c>
     </row>
     <row r="4">
@@ -450,34 +450,34 @@
         <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>1.5191204119887E-13</v>
       </c>
       <c r="G4" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>7.50010710395693E-15</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -494,37 +494,37 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>8.10559729166401E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>3.62836686644839E-8</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.11363636363636363</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.032141217326661246</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0954545454545455</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0287479787288034</v>
       </c>
     </row>
     <row r="6">
@@ -553,22 +553,22 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0287479787288034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -931,7 +931,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -975,7 +975,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -999,10 +999,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1196873797462515</v>
+        <v>0.07171005797696506</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1527,10 +1527,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7318181818181818</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07186994682200863</v>
+        <v>0.10152645798636943</v>
       </c>
       <c r="M28" t="e">
         <v>#NUM!</v>
@@ -1632,15 +1632,15 @@
         <v>0.02874797872880345</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -1649,16 +1649,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5191204119887E-13</v>
+        <v>2.98804530548234E-11</v>
       </c>
       <c r="G3" t="n">
-        <v>7.50010710395693E-15</v>
+        <v>1.78808680974417E-14</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1670,101 +1670,101 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.03833063830507127</v>
       </c>
       <c r="M3" t="n">
-        <v>0.136363636363636</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0191653191525356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>1.5191204119887E-13</v>
       </c>
       <c r="G4" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>7.50010710395693E-15</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11363636363636363</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L4" t="n">
-        <v>0.032141217326661246</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.113636363636364</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0386289357090362</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.79127814653535E-5</v>
+        <v>4.76890257035641E-14</v>
       </c>
       <c r="G5" t="n">
-        <v>9.33953509075301E-8</v>
+        <v>6.65909218869595E-10</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -1772,25 +1772,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.76890257035641E-14</v>
+        <v>6.20873387268557E-14</v>
       </c>
       <c r="G6" t="n">
-        <v>6.65909218869595E-10</v>
+        <v>6.58854637475479E-10</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -1808,54 +1808,54 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0558760270138963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.20873387268557E-14</v>
+        <v>1.79127814653535E-5</v>
       </c>
       <c r="G7" t="n">
-        <v>6.58854637475479E-10</v>
+        <v>9.33953509075301E-8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M7" t="n">
-        <v>0.15</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0743814406583853</v>
+        <v>0.0191653191525356</v>
       </c>
     </row>
     <row r="8">
@@ -1904,13 +1904,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
         <v>11.0</v>
@@ -1954,7 +1954,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>2.0</v>
@@ -1984,10 +1984,10 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -2039,7 +2039,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -2127,7 +2127,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -2350,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2394,7 +2394,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2418,10 +2418,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1196873797462515</v>
+        <v>0.07171005797696506</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -2814,10 +2814,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7318181818181818</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07186994682200863</v>
+        <v>0.10152645798636943</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_papillary.xlsx
+++ b/output/LUAD_statistics_papillary.xlsx
@@ -57,15 +57,15 @@
     <t>15</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -138,15 +138,15 @@
     <t>Mutation EGFR</t>
   </si>
   <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
     <t>Mutation KEAP1</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
     <t>Mutation CUL3</t>
   </si>
   <si>
@@ -156,13 +156,13 @@
     <t>Mutation RB1</t>
   </si>
   <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
     <t>Pattern XOR_RIT1</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
   </si>
   <si>
     <t>Amplification MDM2</t>
@@ -377,22 +377,22 @@
         <v>0.0909090909090908</v>
       </c>
       <c r="I2" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08181818181818182</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02874797872880345</v>
+        <v>0.03067947989593422</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0287479787288034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -406,37 +406,37 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>8.10559729166401E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>3.62836686644839E-8</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1090909090909091</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03833063830507127</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.104545454545455</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0306794798959342</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -494,37 +494,37 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>2.0</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F5" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>2.98804530548234E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>1.78808680974417E-14</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.10454545454545455</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.03067947989593422</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.0954545454545455</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0287479787288034</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="6">
@@ -553,16 +553,16 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L6" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.0909090909090909</v>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -931,7 +931,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -999,10 +999,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7227272727272728</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07171005797696506</v>
+        <v>0.11226444577480428</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1527,10 +1527,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7318181818181818</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="L28" t="n">
-        <v>0.10152645798636943</v>
+        <v>0.06135895979186845</v>
       </c>
       <c r="M28" t="e">
         <v>#NUM!</v>
@@ -1620,16 +1620,16 @@
         <v>0.0909090909090908</v>
       </c>
       <c r="I2" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08181818181818182</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02874797872880345</v>
+        <v>0.03067947989593422</v>
       </c>
       <c r="M2" t="n">
         <v>0.0909090909090909</v>
@@ -1640,157 +1640,157 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>1.5191204119887E-13</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>7.50010710395693E-15</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03833063830507127</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0191653191525356</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5191204119887E-13</v>
+        <v>2.98804530548234E-11</v>
       </c>
       <c r="G4" t="n">
-        <v>7.50010710395693E-15</v>
+        <v>1.78808680974417E-14</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.10454545454545455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.03067947989593422</v>
       </c>
       <c r="M4" t="n">
-        <v>0.136363636363636</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0383306383050713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.76890257035641E-14</v>
+        <v>1.79127814653535E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>6.65909218869595E-10</v>
+        <v>9.33953509075301E-8</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.0863636363636364</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.20873387268557E-14</v>
+        <v>4.76890257035641E-14</v>
       </c>
       <c r="G6" t="n">
-        <v>6.58854637475479E-10</v>
+        <v>6.65909218869595E-10</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -1808,54 +1808,54 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.127272727272727</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0558760270138963</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.79127814653535E-5</v>
+        <v>6.20873387268557E-14</v>
       </c>
       <c r="G7" t="n">
-        <v>9.33953509075301E-8</v>
+        <v>6.58854637475479E-10</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0191653191525356</v>
+        <v>0.0287479787288034</v>
       </c>
     </row>
     <row r="8">
@@ -1904,13 +1904,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
         <v>11.0</v>
@@ -1954,7 +1954,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
         <v>2.0</v>
@@ -1984,10 +1984,10 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>0.0287479787288034</v>
       </c>
     </row>
     <row r="11">
@@ -2127,7 +2127,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -2171,7 +2171,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -2350,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2418,10 +2418,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7227272727272728</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07171005797696506</v>
+        <v>0.11226444577480428</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -2814,10 +2814,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7318181818181818</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="L29" t="n">
-        <v>0.10152645798636943</v>
+        <v>0.06135895979186845</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_papillary.xlsx
+++ b/output/LUAD_statistics_papillary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,93 +54,96 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>Mutation ARID1A</t>
   </si>
   <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
@@ -153,12 +156,12 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
     <t>Pattern OR_KRAS_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_STK11_EGFR_ERBB2</t>
+  </si>
+  <si>
     <t>Pattern OR_STK11_TP53</t>
   </si>
   <si>
@@ -258,7 +264,7 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
@@ -368,25 +374,25 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.9499761718815E-4</v>
+        <v>8.10559729166401E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.44761551525466E-6</v>
+        <v>3.62836686644839E-8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07727272727272727</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03067947989593422</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M2" t="n">
         <v>0.0909090909090909</v>
@@ -400,10 +406,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
         <v>2.0</v>
@@ -412,16 +418,16 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>5.9499761718815E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>4.44761551525466E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I3" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -444,10 +450,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
         <v>11.0</v>
@@ -465,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -488,10 +494,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>6.0</v>
@@ -509,22 +515,22 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.10454545454545455</v>
+        <v>0.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03067947989593422</v>
+        <v>0.019165319152535627</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0954545454545455</v>
+        <v>0.104545454545455</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0306794798959342</v>
       </c>
     </row>
     <row r="6">
@@ -532,10 +538,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
@@ -576,10 +582,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="e">
         <v>#NUM!</v>
@@ -620,10 +626,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="e">
         <v>#NUM!</v>
@@ -664,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="e">
         <v>#NUM!</v>
@@ -708,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -752,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -796,10 +802,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -840,10 +846,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -884,10 +890,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -928,10 +934,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -972,10 +978,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -999,10 +1005,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7227272727272728</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="L16" t="n">
-        <v>0.11226444577480428</v>
+        <v>0.10756508696544757</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1016,10 +1022,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1060,10 +1066,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1104,10 +1110,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1148,10 +1154,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1192,10 +1198,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1236,10 +1242,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1280,10 +1286,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1324,10 +1330,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1368,10 +1374,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1412,10 +1418,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1456,10 +1462,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1500,10 +1506,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1527,15 +1533,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7545454545454545</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06135895979186845</v>
+        <v>0.0</v>
       </c>
       <c r="M28" t="e">
         <v>#NUM!</v>
       </c>
       <c r="N28" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7681818181818182</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.08690685090727264</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N29" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -1555,54 +1605,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
@@ -1611,25 +1661,25 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.9499761718815E-4</v>
+        <v>8.10559729166401E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.44761551525466E-6</v>
+        <v>3.62836686644839E-8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07727272727272727</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03067947989593422</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M2" t="n">
         <v>0.0909090909090909</v>
@@ -1640,7 +1690,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1649,42 +1699,42 @@
         <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5191204119887E-13</v>
+        <v>5.9499761718815E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>7.50010710395693E-15</v>
+        <v>4.44761551525466E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I3" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.136363636363636</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0191653191525356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -1693,42 +1743,42 @@
         <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>1.5191204119887E-13</v>
       </c>
       <c r="G4" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>7.50010710395693E-15</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.10454545454545455</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03067947989593422</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.109090909090909</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0383306383050713</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -1737,34 +1787,34 @@
         <v>50</v>
       </c>
       <c r="D5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>2.0</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F5" t="n">
-        <v>1.79127814653535E-5</v>
+        <v>2.98804530548234E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>9.33953509075301E-8</v>
+        <v>1.78808680974417E-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.019165319152535627</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0954545454545455</v>
       </c>
       <c r="N5" t="n">
         <v>0.0143739893644017</v>
@@ -1772,69 +1822,69 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.76890257035641E-14</v>
+        <v>1.79127814653535E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>6.65909218869595E-10</v>
+        <v>9.33953509075301E-8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.0863636363636364</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.20873387268557E-14</v>
+        <v>4.76890257035641E-14</v>
       </c>
       <c r="G7" t="n">
-        <v>6.58854637475479E-10</v>
+        <v>6.65909218869595E-10</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -1852,21 +1902,21 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.127272727272727</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0287479787288034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>8.0</v>
@@ -1875,10 +1925,10 @@
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>8.06878648177666E-14</v>
+        <v>6.20873387268557E-14</v>
       </c>
       <c r="G8" t="n">
-        <v>8.22095899979635E-12</v>
+        <v>6.58854637475479E-10</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -1896,36 +1946,36 @@
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.0488621681715064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.17173965224315E-14</v>
+        <v>8.06878648177666E-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.47044851178231E-13</v>
+        <v>8.22095899979635E-12</v>
       </c>
       <c r="H9" t="n">
-        <v>0.238095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -1934,13 +1984,13 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -1948,28 +1998,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>2.0</v>
       </c>
-      <c r="E10" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F10" t="n">
-        <v>2.4297971198008E-5</v>
+        <v>6.17173965224315E-14</v>
       </c>
       <c r="G10" t="n">
-        <v>9.33953509075301E-8</v>
+        <v>2.47044851178231E-13</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -1984,10 +2034,10 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0287479787288034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1995,10 +2045,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
         <v>11.0</v>
@@ -2039,10 +2089,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="n">
         <v>11.0</v>
@@ -2083,10 +2133,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
         <v>11.0</v>
@@ -2127,10 +2177,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
         <v>6.0</v>
@@ -2171,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>6.0</v>
@@ -2215,10 +2265,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -2259,10 +2309,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2303,10 +2353,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2347,10 +2397,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2391,10 +2441,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2418,10 +2468,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7227272727272728</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="L20" t="n">
-        <v>0.11226444577480428</v>
+        <v>0.10756508696544757</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2432,13 +2482,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2479,10 +2529,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -2523,10 +2573,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -2567,10 +2617,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -2611,10 +2661,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -2655,10 +2705,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -2699,10 +2749,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -2743,10 +2793,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -2784,45 +2834,89 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N29" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.7545454545454545</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.06135895979186845</v>
-      </c>
-      <c r="M29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" t="e">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7681818181818182</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.08690685090727264</v>
+      </c>
+      <c r="M30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N30" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_papillary.xlsx
+++ b/output/LUAD_statistics_papillary.xlsx
@@ -54,12 +54,12 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -138,12 +138,12 @@
     <t>27</t>
   </si>
   <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
     <t>Mutation ARID1A</t>
   </si>
   <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
@@ -156,10 +156,10 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
     <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
   </si>
   <si>
     <t>Mutation STK11</t>
@@ -374,13 +374,13 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>5.9499761718815E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>4.44761551525466E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -389,10 +389,10 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L2" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0909090909090909</v>
@@ -418,25 +418,25 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.9499761718815E-4</v>
+        <v>8.10559729166401E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.44761551525466E-6</v>
+        <v>3.62836686644839E-8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M3" t="n">
         <v>0.0909090909090909</v>
@@ -471,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -515,22 +515,22 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="L5" t="n">
-        <v>0.019165319152535627</v>
+        <v>0.03178208630818641</v>
       </c>
       <c r="M5" t="n">
-        <v>0.104545454545455</v>
+        <v>0.0954545454545455</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0306794798959342</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.03067947989593422</v>
       </c>
       <c r="M6" t="n">
         <v>0.0909090909090909</v>
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -1005,10 +1005,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7545454545454545</v>
+        <v>0.7590909090909091</v>
       </c>
       <c r="L16" t="n">
-        <v>0.10756508696544757</v>
+        <v>0.04815226843051731</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1577,7 +1577,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7681818181818182</v>
+        <v>0.7227272727272727</v>
       </c>
       <c r="L29" t="n">
         <v>0.08690685090727264</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1661,13 +1661,13 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>5.9499761718815E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>4.44761551525466E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -1676,10 +1676,10 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L2" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0909090909090909</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1705,31 +1705,31 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.9499761718815E-4</v>
+        <v>8.10559729166401E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.44761551525466E-6</v>
+        <v>3.62836686644839E-8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0191653191525356</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1758,7 +1758,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -1802,16 +1802,16 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="L5" t="n">
-        <v>0.019165319152535627</v>
+        <v>0.03178208630818641</v>
       </c>
       <c r="M5" t="n">
         <v>0.0954545454545455</v>
@@ -1846,22 +1846,22 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.03067947989593422</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1946,10 @@
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.109090909090909</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0488621681715064</v>
+        <v>0.0801742821534724</v>
       </c>
     </row>
     <row r="9">
@@ -1998,13 +1998,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
         <v>11.0</v>
@@ -2356,7 +2356,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2468,10 +2468,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7545454545454545</v>
+        <v>0.7590909090909091</v>
       </c>
       <c r="L20" t="n">
-        <v>0.10756508696544757</v>
+        <v>0.04815226843051731</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2908,7 +2908,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7681818181818182</v>
+        <v>0.7227272727272727</v>
       </c>
       <c r="L30" t="n">
         <v>0.08690685090727264</v>

--- a/output/LUAD_statistics_papillary.xlsx
+++ b/output/LUAD_statistics_papillary.xlsx
@@ -54,21 +54,21 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -138,37 +138,37 @@
     <t>27</t>
   </si>
   <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation CUL3</t>
+  </si>
+  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
     <t>Mutation ARID1A</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation CUL3</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Pattern XOR_RIT1</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
     <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Pattern XOR_RIT1</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
   </si>
   <si>
     <t>Amplification CCNE1</t>
@@ -368,19 +368,19 @@
         <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.9499761718815E-4</v>
+        <v>6.47830496888685E-9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.44761551525466E-6</v>
+        <v>3.90164890151583E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -389,13 +389,13 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -412,37 +412,37 @@
         <v>48</v>
       </c>
       <c r="D3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>1.08028798537703E-6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>1.62005885409892E-9</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.032141217326661246</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0191653191525356</v>
       </c>
     </row>
     <row r="4">
@@ -456,34 +456,34 @@
         <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5191204119887E-13</v>
+        <v>1.23065341835441E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>7.50010710395693E-15</v>
+        <v>3.51553464856468E-5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.136363636363636</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -500,19 +500,19 @@
         <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>0.0164671950987372</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>5.06078370179862E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I5" t="n">
         <v>40.0</v>
@@ -521,16 +521,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.10909090909090909</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03178208630818641</v>
+        <v>0.02874797872880345</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0954545454545455</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -550,25 +550,25 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.79127814653535E-5</v>
+        <v>0.0188083903029351</v>
       </c>
       <c r="G6" t="n">
-        <v>9.33953509075301E-8</v>
+        <v>6.58338551620254E-5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07727272727272727</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03067947989593422</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M6" t="n">
         <v>0.0909090909090909</v>
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -937,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -981,7 +981,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -1005,10 +1005,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7590909090909091</v>
+        <v>0.7227272727272727</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04815226843051731</v>
+        <v>0.10376299192887233</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1577,10 +1577,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7227272727272727</v>
+        <v>0.8136363636363636</v>
       </c>
       <c r="L29" t="n">
-        <v>0.08690685090727264</v>
+        <v>0.07250597644851756</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1655,19 +1655,19 @@
         <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.9499761718815E-4</v>
+        <v>6.47830496888685E-9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.44761551525466E-6</v>
+        <v>3.90164890151583E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -1676,13 +1676,13 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1699,42 +1699,42 @@
         <v>48</v>
       </c>
       <c r="D3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>8.10559729166401E-4</v>
+        <v>1.08028798537703E-6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.62836686644839E-8</v>
+        <v>1.62005885409892E-9</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.032141217326661246</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0954545454545455</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -1743,42 +1743,42 @@
         <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5191204119887E-13</v>
+        <v>1.23065341835441E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>7.50010710395693E-15</v>
+        <v>3.51553464856468E-5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.136363636363636</v>
+        <v>0.0863636363636364</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -1787,19 +1787,19 @@
         <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.98804530548234E-11</v>
+        <v>0.0164671950987372</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78808680974417E-14</v>
+        <v>5.06078370179862E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I5" t="n">
         <v>40.0</v>
@@ -1808,13 +1808,13 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.10909090909090909</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03178208630818641</v>
+        <v>0.02874797872880345</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0954545454545455</v>
+        <v>0.0863636363636364</v>
       </c>
       <c r="N5" t="n">
         <v>0.0143739893644017</v>
@@ -1822,43 +1822,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.79127814653535E-5</v>
+        <v>5.18434007498976E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>9.33953509075301E-8</v>
+        <v>4.85508434727297E-6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07727272727272727</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03067947989593422</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -1866,28 +1866,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.76890257035641E-14</v>
+        <v>4.92036489519812E-9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.65909218869595E-10</v>
+        <v>4.75659627361937E-6</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -1902,33 +1902,33 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.122727272727273</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>0.0568938889561169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.20873387268557E-14</v>
+        <v>2.67750276738361E-8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.58854637475479E-10</v>
+        <v>8.23991553846803E-7</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -1946,10 +1946,10 @@
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.136363636363636</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0801742821534724</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1969,13 +1969,13 @@
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.06878648177666E-14</v>
+        <v>6.5574062081355E-9</v>
       </c>
       <c r="G9" t="n">
-        <v>8.22095899979635E-12</v>
+        <v>2.30744127654176E-8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
         <v>11.0</v>
@@ -2013,10 +2013,10 @@
         <v>2.0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.17173965224315E-14</v>
+        <v>5.81926256513239E-9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.47044851178231E-13</v>
+        <v>3.9304486507041E-9</v>
       </c>
       <c r="H10" t="n">
         <v>0.238095238095238</v>
@@ -2042,28 +2042,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D11" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.97270087957833E-14</v>
+        <v>0.00614709867217924</v>
       </c>
       <c r="G11" t="n">
-        <v>1.79150680880723E-14</v>
+        <v>6.64534861668474E-5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.238095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -2072,27 +2072,27 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401724</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.0287479787288034</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
       </c>
       <c r="D12" t="n">
         <v>11.0</v>
@@ -2101,10 +2101,10 @@
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6.78308503022826E-14</v>
+        <v>5.36288054395102E-9</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04162492273512E-13</v>
+        <v>3.90883127813853E-9</v>
       </c>
       <c r="H12" t="n">
         <v>0.238095238095238</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="n">
         <v>11.0</v>
@@ -2145,10 +2145,10 @@
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.90740729168891E-14</v>
+        <v>5.7225966873308E-9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.80524786262623E-14</v>
+        <v>1.63361719987955E-9</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
@@ -2174,25 +2174,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.31918785050341E-13</v>
+        <v>5.31774403376272E-9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93824921335391E-11</v>
+        <v>1.62818178790609E-9</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -2204,13 +2204,13 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
         <v>6.0</v>
@@ -2233,10 +2233,10 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.46389900731665E-13</v>
+        <v>1.68562751642643E-8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.09837728586287E-10</v>
+        <v>5.54694828519092E-8</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
@@ -2262,57 +2262,57 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#NUM!</v>
+        <v>60</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.35559673117991E-8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.30134481182054E-7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
-      <c r="M16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#NUM!</v>
+      <c r="M16" t="n">
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2336,7 +2336,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -2356,7 +2356,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2400,7 +2400,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2444,7 +2444,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2468,10 +2468,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7590909090909091</v>
+        <v>0.7227272727272727</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04815226843051731</v>
+        <v>0.10376299192887233</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -2908,10 +2908,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7227272727272727</v>
+        <v>0.8136363636363636</v>
       </c>
       <c r="L30" t="n">
-        <v>0.08690685090727264</v>
+        <v>0.07250597644851756</v>
       </c>
       <c r="M30" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_papillary.xlsx
+++ b/output/LUAD_statistics_papillary.xlsx
@@ -54,21 +54,21 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -138,37 +138,37 @@
     <t>27</t>
   </si>
   <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
+    <t>Mutation CUL3</t>
+  </si>
+  <si>
     <t>Mutation KEAP1</t>
   </si>
   <si>
-    <t>Mutation CUL3</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
     <t>Pattern XOR_RIT1</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
   </si>
   <si>
     <t>Amplification CCNE1</t>
@@ -368,34 +368,34 @@
         <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.47830496888685E-9</v>
+        <v>0.0188083903029351</v>
       </c>
       <c r="G2" t="n">
-        <v>3.90164890151583E-9</v>
+        <v>6.58338551620254E-5</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.136363636363636</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -412,37 +412,37 @@
         <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.08028798537703E-6</v>
+        <v>0.0164671950987372</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62005885409892E-9</v>
+        <v>5.06078370179862E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.11363636363636363</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.032141217326661246</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0191653191525356</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -456,19 +456,19 @@
         <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.23065341835441E-4</v>
+        <v>6.47830496888685E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.51553464856468E-5</v>
+        <v>3.90164890151583E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>60.0</v>
@@ -477,13 +477,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -506,13 +506,13 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0164671950987372</v>
+        <v>1.23065341835441E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>5.06078370179862E-4</v>
+        <v>3.51553464856468E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I5" t="n">
         <v>40.0</v>
@@ -521,16 +521,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08181818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02874797872880345</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0863636363636364</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="6">
@@ -544,37 +544,37 @@
         <v>51</v>
       </c>
       <c r="D6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.0</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.0188083903029351</v>
+        <v>1.08028798537703E-6</v>
       </c>
       <c r="G6" t="n">
-        <v>6.58338551620254E-5</v>
+        <v>1.62005885409892E-9</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="L6" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.023956648940669532</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0954545454545455</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0143739893644017</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -937,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -981,7 +981,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -1005,10 +1005,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7227272727272727</v>
+        <v>0.7681818181818182</v>
       </c>
       <c r="L16" t="n">
-        <v>0.10376299192887233</v>
+        <v>0.08145260639827644</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1577,10 +1577,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8136363636363636</v>
+        <v>0.740909090909091</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07250597644851756</v>
+        <v>0.052704627669472995</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>
@@ -1646,43 +1646,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.47830496888685E-9</v>
+        <v>0.0164671950987372</v>
       </c>
       <c r="G2" t="n">
-        <v>3.90164890151583E-9</v>
+        <v>5.06078370179862E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0909090909090908</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.136363636363636</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1690,46 +1690,46 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.08028798537703E-6</v>
+        <v>6.47830496888685E-9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62005885409892E-9</v>
+        <v>3.90164890151583E-9</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.11363636363636363</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.032141217326661246</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0954545454545455</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1737,10 +1737,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>2.0</v>
@@ -1758,7 +1758,7 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -1770,80 +1770,80 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0164671950987372</v>
+        <v>5.18434007498976E-9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.06078370179862E-4</v>
+        <v>4.85508434727297E-6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0909090909090908</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08181818181818182</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02874797872880345</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0863636363636364</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0143739893644017</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.18434007498976E-9</v>
+        <v>4.92036489519812E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>4.85508434727297E-6</v>
+        <v>4.75659627361937E-6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -1858,36 +1858,36 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.163636363636364</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0574959574576069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.92036489519812E-9</v>
+        <v>2.67750276738361E-8</v>
       </c>
       <c r="G7" t="n">
-        <v>4.75659627361937E-6</v>
+        <v>8.23991553846803E-7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.363636363636364</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -1902,36 +1902,36 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.122727272727273</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0568938889561169</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.67750276738361E-8</v>
+        <v>6.5574062081355E-9</v>
       </c>
       <c r="G8" t="n">
-        <v>8.23991553846803E-7</v>
+        <v>2.30744127654176E-8</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -1954,28 +1954,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.5574062081355E-9</v>
+        <v>5.81926256513239E-9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.30744127654176E-8</v>
+        <v>3.9304486507041E-9</v>
       </c>
       <c r="H9" t="n">
-        <v>0.121212121212121</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -1984,13 +1984,13 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -1998,28 +1998,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>5.81926256513239E-9</v>
+        <v>0.00614709867217924</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9304486507041E-9</v>
+        <v>6.64534861668474E-5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.238095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -2042,28 +2042,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E11" t="n">
         <v>2.0</v>
       </c>
-      <c r="E11" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0.00614709867217924</v>
+        <v>5.36288054395102E-9</v>
       </c>
       <c r="G11" t="n">
-        <v>6.64534861668474E-5</v>
+        <v>3.90883127813853E-9</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -2072,27 +2072,27 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L11" t="n">
-        <v>0.014373989364401724</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0818181818181818</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0287479787288034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="n">
         <v>11.0</v>
@@ -2101,13 +2101,13 @@
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.36288054395102E-9</v>
+        <v>5.7225966873308E-9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.90883127813853E-9</v>
+        <v>1.63361719987955E-9</v>
       </c>
       <c r="H12" t="n">
-        <v>0.238095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
         <v>11.0</v>
@@ -2145,10 +2145,10 @@
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.7225966873308E-9</v>
+        <v>5.31774403376272E-9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.63361719987955E-9</v>
+        <v>1.62818178790609E-9</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
@@ -2174,25 +2174,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.31774403376272E-9</v>
+        <v>1.68562751642643E-8</v>
       </c>
       <c r="G14" t="n">
-        <v>1.62818178790609E-9</v>
+        <v>5.54694828519092E-8</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -2204,13 +2204,13 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>6.0</v>
@@ -2233,10 +2233,10 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.68562751642643E-8</v>
+        <v>1.35559673117991E-8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.54694828519092E-8</v>
+        <v>3.30134481182054E-7</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
@@ -2262,25 +2262,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>6.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.35559673117991E-8</v>
+        <v>1.08028798537703E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>3.30134481182054E-7</v>
+        <v>1.62005885409892E-9</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
@@ -2289,19 +2289,19 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.045454545454545456</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>0.023956648940669532</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>0.023472626340651</v>
       </c>
     </row>
     <row r="17">
@@ -2356,7 +2356,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2400,7 +2400,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2444,7 +2444,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2468,10 +2468,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7227272727272727</v>
+        <v>0.7681818181818182</v>
       </c>
       <c r="L20" t="n">
-        <v>0.10376299192887233</v>
+        <v>0.08145260639827644</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -2908,10 +2908,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8136363636363636</v>
+        <v>0.740909090909091</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07250597644851756</v>
+        <v>0.052704627669472995</v>
       </c>
       <c r="M30" t="e">
         <v>#NUM!</v>
